--- a/sample.xlsx
+++ b/sample.xlsx
@@ -239,6 +239,15 @@
 <file path=xl/worksheets/sheet16.xml>
 </file>
 
+<file path=xl/worksheets/sheet17.xml>
+</file>
+
+<file path=xl/worksheets/sheet18.xml>
+</file>
+
+<file path=xl/worksheets/sheet19.xml>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -287,6 +296,9 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -301,6 +301,33 @@
 <file path=xl/worksheets/sheet20.xml>
 </file>
 
+<file path=xl/worksheets/sheet21.xml>
+</file>
+
+<file path=xl/worksheets/sheet22.xml>
+</file>
+
+<file path=xl/worksheets/sheet23.xml>
+</file>
+
+<file path=xl/worksheets/sheet24.xml>
+</file>
+
+<file path=xl/worksheets/sheet25.xml>
+</file>
+
+<file path=xl/worksheets/sheet26.xml>
+</file>
+
+<file path=xl/worksheets/sheet27.xml>
+</file>
+
+<file path=xl/worksheets/sheet28.xml>
+</file>
+
+<file path=xl/worksheets/sheet29.xml>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -370,6 +397,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml>
+</file>
+
+<file path=xl/worksheets/sheet31.xml>
+</file>
+
+<file path=xl/worksheets/sheet32.xml>
+</file>
+
+<file path=xl/worksheets/sheet33.xml>
+</file>
+
+<file path=xl/worksheets/sheet34.xml>
+</file>
+
+<file path=xl/worksheets/sheet35.xml>
+</file>
+
+<file path=xl/worksheets/sheet36.xml>
+</file>
+
+<file path=xl/worksheets/sheet37.xml>
+</file>
+
+<file path=xl/worksheets/sheet38.xml>
+</file>
+
+<file path=xl/worksheets/sheet39.xml>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -408,6 +465,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml>
+</file>
+
+<file path=xl/worksheets/sheet41.xml>
+</file>
+
+<file path=xl/worksheets/sheet42.xml>
+</file>
+
+<file path=xl/worksheets/sheet43.xml>
+</file>
+
+<file path=xl/worksheets/sheet44.xml>
+</file>
+
 <file path=xl/worksheets/sheet5.xml>
 </file>
 

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -221,6 +221,33 @@
 <file path=xl/worksheets/sheet10.xml>
 </file>
 
+<file path=xl/worksheets/sheet100.xml>
+</file>
+
+<file path=xl/worksheets/sheet101.xml>
+</file>
+
+<file path=xl/worksheets/sheet102.xml>
+</file>
+
+<file path=xl/worksheets/sheet103.xml>
+</file>
+
+<file path=xl/worksheets/sheet104.xml>
+</file>
+
+<file path=xl/worksheets/sheet105.xml>
+</file>
+
+<file path=xl/worksheets/sheet106.xml>
+</file>
+
+<file path=xl/worksheets/sheet107.xml>
+</file>
+
+<file path=xl/worksheets/sheet108.xml>
+</file>
+
 <file path=xl/worksheets/sheet11.xml>
 </file>
 
@@ -480,17 +507,182 @@
 <file path=xl/worksheets/sheet44.xml>
 </file>
 
+<file path=xl/worksheets/sheet45.xml>
+</file>
+
+<file path=xl/worksheets/sheet46.xml>
+</file>
+
+<file path=xl/worksheets/sheet47.xml>
+</file>
+
+<file path=xl/worksheets/sheet48.xml>
+</file>
+
+<file path=xl/worksheets/sheet49.xml>
+</file>
+
 <file path=xl/worksheets/sheet5.xml>
 </file>
 
+<file path=xl/worksheets/sheet50.xml>
+</file>
+
+<file path=xl/worksheets/sheet51.xml>
+</file>
+
+<file path=xl/worksheets/sheet52.xml>
+</file>
+
+<file path=xl/worksheets/sheet53.xml>
+</file>
+
+<file path=xl/worksheets/sheet54.xml>
+</file>
+
+<file path=xl/worksheets/sheet55.xml>
+</file>
+
+<file path=xl/worksheets/sheet56.xml>
+</file>
+
+<file path=xl/worksheets/sheet57.xml>
+</file>
+
+<file path=xl/worksheets/sheet58.xml>
+</file>
+
+<file path=xl/worksheets/sheet59.xml>
+</file>
+
 <file path=xl/worksheets/sheet6.xml>
 </file>
 
+<file path=xl/worksheets/sheet60.xml>
+</file>
+
+<file path=xl/worksheets/sheet61.xml>
+</file>
+
+<file path=xl/worksheets/sheet62.xml>
+</file>
+
+<file path=xl/worksheets/sheet63.xml>
+</file>
+
+<file path=xl/worksheets/sheet64.xml>
+</file>
+
+<file path=xl/worksheets/sheet65.xml>
+</file>
+
+<file path=xl/worksheets/sheet66.xml>
+</file>
+
+<file path=xl/worksheets/sheet67.xml>
+</file>
+
+<file path=xl/worksheets/sheet68.xml>
+</file>
+
+<file path=xl/worksheets/sheet69.xml>
+</file>
+
 <file path=xl/worksheets/sheet7.xml>
 </file>
 
+<file path=xl/worksheets/sheet70.xml>
+</file>
+
+<file path=xl/worksheets/sheet71.xml>
+</file>
+
+<file path=xl/worksheets/sheet72.xml>
+</file>
+
+<file path=xl/worksheets/sheet73.xml>
+</file>
+
+<file path=xl/worksheets/sheet74.xml>
+</file>
+
+<file path=xl/worksheets/sheet75.xml>
+</file>
+
+<file path=xl/worksheets/sheet76.xml>
+</file>
+
+<file path=xl/worksheets/sheet77.xml>
+</file>
+
+<file path=xl/worksheets/sheet78.xml>
+</file>
+
+<file path=xl/worksheets/sheet79.xml>
+</file>
+
 <file path=xl/worksheets/sheet8.xml>
 </file>
 
+<file path=xl/worksheets/sheet80.xml>
+</file>
+
+<file path=xl/worksheets/sheet81.xml>
+</file>
+
+<file path=xl/worksheets/sheet82.xml>
+</file>
+
+<file path=xl/worksheets/sheet83.xml>
+</file>
+
+<file path=xl/worksheets/sheet84.xml>
+</file>
+
+<file path=xl/worksheets/sheet85.xml>
+</file>
+
+<file path=xl/worksheets/sheet86.xml>
+</file>
+
+<file path=xl/worksheets/sheet87.xml>
+</file>
+
+<file path=xl/worksheets/sheet88.xml>
+</file>
+
+<file path=xl/worksheets/sheet89.xml>
+</file>
+
 <file path=xl/worksheets/sheet9.xml>
+</file>
+
+<file path=xl/worksheets/sheet90.xml>
+</file>
+
+<file path=xl/worksheets/sheet91.xml>
+</file>
+
+<file path=xl/worksheets/sheet92.xml>
+</file>
+
+<file path=xl/worksheets/sheet93.xml>
+</file>
+
+<file path=xl/worksheets/sheet94.xml>
+</file>
+
+<file path=xl/worksheets/sheet95.xml>
+</file>
+
+<file path=xl/worksheets/sheet96.xml>
+</file>
+
+<file path=xl/worksheets/sheet97.xml>
+</file>
+
+<file path=xl/worksheets/sheet98.xml>
+</file>
+
+<file path=xl/worksheets/sheet99.xml>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -248,13 +248,97 @@
 <file path=xl/worksheets/sheet108.xml>
 </file>
 
+<file path=xl/worksheets/sheet109.xml>
+</file>
+
 <file path=xl/worksheets/sheet11.xml>
 </file>
 
+<file path=xl/worksheets/sheet110.xml>
+</file>
+
+<file path=xl/worksheets/sheet111.xml>
+</file>
+
+<file path=xl/worksheets/sheet112.xml>
+</file>
+
+<file path=xl/worksheets/sheet113.xml>
+</file>
+
+<file path=xl/worksheets/sheet114.xml>
+</file>
+
+<file path=xl/worksheets/sheet115.xml>
+</file>
+
+<file path=xl/worksheets/sheet116.xml>
+</file>
+
+<file path=xl/worksheets/sheet117.xml>
+</file>
+
+<file path=xl/worksheets/sheet118.xml>
+</file>
+
+<file path=xl/worksheets/sheet119.xml>
+</file>
+
 <file path=xl/worksheets/sheet12.xml>
 </file>
 
+<file path=xl/worksheets/sheet120.xml>
+</file>
+
+<file path=xl/worksheets/sheet121.xml>
+</file>
+
+<file path=xl/worksheets/sheet122.xml>
+</file>
+
+<file path=xl/worksheets/sheet123.xml>
+</file>
+
+<file path=xl/worksheets/sheet124.xml>
+</file>
+
+<file path=xl/worksheets/sheet125.xml>
+</file>
+
+<file path=xl/worksheets/sheet126.xml>
+</file>
+
+<file path=xl/worksheets/sheet127.xml>
+</file>
+
+<file path=xl/worksheets/sheet128.xml>
+</file>
+
+<file path=xl/worksheets/sheet129.xml>
+</file>
+
 <file path=xl/worksheets/sheet13.xml>
+</file>
+
+<file path=xl/worksheets/sheet130.xml>
+</file>
+
+<file path=xl/worksheets/sheet131.xml>
+</file>
+
+<file path=xl/worksheets/sheet132.xml>
+</file>
+
+<file path=xl/worksheets/sheet133.xml>
+</file>
+
+<file path=xl/worksheets/sheet134.xml>
+</file>
+
+<file path=xl/worksheets/sheet135.xml>
+</file>
+
+<file path=xl/worksheets/sheet136.xml>
 </file>
 
 <file path=xl/worksheets/sheet14.xml>
